--- a/biology/Zoologie/Heliconius_pardalinus/Heliconius_pardalinus.xlsx
+++ b/biology/Zoologie/Heliconius_pardalinus/Heliconius_pardalinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius pardalinus est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,11 +523,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Heliconius pardalinus a été décrit par Henry Walter Bates en 1862[1].
-Sous-espèces
-Heliconius pardalinus pardalinus ; présent au Brésil.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius pardalinus a été décrit par Henry Walter Bates en 1862.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heliconius_pardalinus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_pardalinus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius pardalinus pardalinus ; présent au Brésil.
 Heliconius pardalinus ariadne Neukirchen, 1995 ; présent en Bolivie.
 Heliconius pardalinus butleri Brown, 1975 ; présent au Pérou.
 Heliconius pardalinus dilatus Weymer, 1894 ; présent au Pérou.
@@ -525,35 +574,37 @@
 Heliconius pardalinus orteguaza Brown, 1976 ; présent en Colombie.
 Heliconius pardalinus radiosus Butler, 1873 ; présent au Brésil.
 Heliconius pardalinus sergestus Weymer, 1894 ; présent au Pérou.
-Heliconius pardalinus tithoreides Staudinger, 1900 ; présent au Pérou[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+Heliconius pardalinus tithoreides Staudinger, 1900 ; présent au Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Heliconius_pardalinus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heliconius_pardalinus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius pardalinus est un grand papillon orange marqué de marron et de jaune au corps fin et aux ailes antérieures allongées à bord interne concave.
 Le dessus est de couleur orange à rouge suivant les sous-espèces avec aux ailes antérieures l'apex marron, une bande irrégulière jaune et quelques taches marron et aux ailes postérieures une ornementation marron plus ou moins marquée suivant les sous-espèces sous forme de bandes marron plus ou moins foncé agrémentées ou non de chevrons orange.
@@ -562,73 +613,45 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Heliconius_pardalinus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heliconius_pardalinus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae (Granadilla, Astrophea et Distephana[2].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae (Granadilla, Astrophea et Distephana.
 Sur les autres projets Wikimedia :
 Heliconius pardalinus, sur Wikimedia CommonsHeliconius pardalinus, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_pardalinus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_pardalinus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius pardalinus est présent en Colombie,  en Bolivie, en Équateur, au Brésil et au Pérou[1].
-Biotope
-Heliconius pardalinus réside en lisière de forêt[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -650,10 +673,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius pardalinus est présent en Colombie,  en Bolivie, en Équateur, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_pardalinus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_pardalinus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius pardalinus réside en lisière de forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_pardalinus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_pardalinus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
